--- a/Life_Cycle_Data/Testcases/Verilog Stopwatch Testcases.xlsx
+++ b/Life_Cycle_Data/Testcases/Verilog Stopwatch Testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010377\Documents\GitHub\Verilog_Stopwatch\Life_Cycle_Data\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A04E5-2D4C-4069-ADA3-E69797B6B1C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9941796-25F6-4714-AE86-15EFDEB3406B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trigger Detection Circuit" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>Requirement Tag</t>
   </si>
@@ -56,13 +56,157 @@
   </si>
   <si>
     <t>Git Commit</t>
+  </si>
+  <si>
+    <t>DRV_INIT_01</t>
+  </si>
+  <si>
+    <t>DRV_INIT_02</t>
+  </si>
+  <si>
+    <t>DRV_INIT_03</t>
+  </si>
+  <si>
+    <t>DRV_INIT_04</t>
+  </si>
+  <si>
+    <t>DRV_INIT_05</t>
+  </si>
+  <si>
+    <t>DRV_INIT_06</t>
+  </si>
+  <si>
+    <t>DRV_INIT_07</t>
+  </si>
+  <si>
+    <t>DRV_INIT_08</t>
+  </si>
+  <si>
+    <t>DRV_INIT_09</t>
+  </si>
+  <si>
+    <t>DRV_INIT_10</t>
+  </si>
+  <si>
+    <t>DRV_INIT_01_01</t>
+  </si>
+  <si>
+    <t>The module shall preset o_segout1 to "11111111" upon system startup.</t>
+  </si>
+  <si>
+    <t>The module shall preset o_segout2 to "11111111" upon system startup.</t>
+  </si>
+  <si>
+    <t>The module shall preset o_segout3 to "11111111" upon system startup.</t>
+  </si>
+  <si>
+    <t>The module shall preset o_segout4 to "11111111" upon system startup.</t>
+  </si>
+  <si>
+    <t>The module shall preset o_segout5 to "11111111" upon system startup.</t>
+  </si>
+  <si>
+    <t>DRV_INIT_02_01</t>
+  </si>
+  <si>
+    <t>DRV_INIT_03_01</t>
+  </si>
+  <si>
+    <t>DRV_INIT_04_01</t>
+  </si>
+  <si>
+    <t>DRV_INIT_05_01</t>
+  </si>
+  <si>
+    <t>The module shall set o_segout1 to "11111111" when i_reset_n is set to logic low.</t>
+  </si>
+  <si>
+    <t>The module shall set o_segout2 to "11111111" when i_reset_n is set to logic low.</t>
+  </si>
+  <si>
+    <t>The module shall set o_segout3 to "11111111" when i_reset_n is set to logic low.</t>
+  </si>
+  <si>
+    <t>The module shall set o_segout4 to "11111111" when i_reset_n is set to logic low.</t>
+  </si>
+  <si>
+    <t>The module shall set o_segout5 to "11111111" when i_reset_n is set to logic low.</t>
+  </si>
+  <si>
+    <t>1. Observe o_segout1</t>
+  </si>
+  <si>
+    <t>1. Observe o_segout2</t>
+  </si>
+  <si>
+    <t>1. Observe o_segout3</t>
+  </si>
+  <si>
+    <t>1. Observe o_segout4</t>
+  </si>
+  <si>
+    <t>1. Observe o_segout5</t>
+  </si>
+  <si>
+    <t>o_segout3 = "11111111"</t>
+  </si>
+  <si>
+    <t>o_segout2 = "11111111"</t>
+  </si>
+  <si>
+    <t>o_segout1 = "11111111"</t>
+  </si>
+  <si>
+    <t>o_segout5 = "11111111"</t>
+  </si>
+  <si>
+    <t>o_segout4 = "11111111"</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>DRV_INIT_06_01</t>
+  </si>
+  <si>
+    <t>DRV_INIT_07_01</t>
+  </si>
+  <si>
+    <t>DRV_INIT_08_01</t>
+  </si>
+  <si>
+    <t>DRV_INIT_09_01</t>
+  </si>
+  <si>
+    <t>DRV_INIT_10_01</t>
+  </si>
+  <si>
+    <t>2. Observe o_segout5</t>
+  </si>
+  <si>
+    <t>2. Observe o_segout4</t>
+  </si>
+  <si>
+    <t>2. Observe o_segout3</t>
+  </si>
+  <si>
+    <t>2. Observe o_segout2</t>
+  </si>
+  <si>
+    <t>2. Observe o_segout1</t>
+  </si>
+  <si>
+    <t>1. Set i_reset_n equal to logic low.</t>
+  </si>
+  <si>
+    <t>i_reset_n = '0'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +214,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -96,17 +258,235 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5854B2-0AAC-427A-9430-B2DB5F6A605C}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,25 +930,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C34BED-7580-4E83-AC52-C5E9782724A5}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +978,525 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Life_Cycle_Data/Testcases/Verilog Stopwatch Testcases.xlsx
+++ b/Life_Cycle_Data/Testcases/Verilog Stopwatch Testcases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010377\Documents\GitHub\Verilog_Stopwatch\Life_Cycle_Data\Testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010371\Documents\GitHub\Verilog_Stopwatch\Life_Cycle_Data\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A04E5-2D4C-4069-ADA3-E69797B6B1C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F5E6AA-AB6E-40D7-9B8F-0C6C38DC0B7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trigger Detection Circuit" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="125">
   <si>
     <t>Requirement Tag</t>
   </si>
@@ -56,6 +56,354 @@
   </si>
   <si>
     <t>Git Commit</t>
+  </si>
+  <si>
+    <t>TDC_INIT_01</t>
+  </si>
+  <si>
+    <t>TDC_INIT_01_1</t>
+  </si>
+  <si>
+    <t>1. Initialize the Module.</t>
+  </si>
+  <si>
+    <t>o_latch_count</t>
+  </si>
+  <si>
+    <t>o_latch_count = '1'</t>
+  </si>
+  <si>
+    <t>o_count_init</t>
+  </si>
+  <si>
+    <t>o_count_init = '1'</t>
+  </si>
+  <si>
+    <t>TDC_INIT_02</t>
+  </si>
+  <si>
+    <t>TDC_INIT_02_1</t>
+  </si>
+  <si>
+    <t>The module shall preset o_count_enb to logic low upon system startup</t>
+  </si>
+  <si>
+    <t>2. Observe o_count_enb.</t>
+  </si>
+  <si>
+    <t>o_count_enb</t>
+  </si>
+  <si>
+    <t>o_count_enb = '0'</t>
+  </si>
+  <si>
+    <t>TDC_INIT_03</t>
+  </si>
+  <si>
+    <t>TDC_INIT_03_1</t>
+  </si>
+  <si>
+    <t>curState_t</t>
+  </si>
+  <si>
+    <t>curState_t = IDLE</t>
+  </si>
+  <si>
+    <t>nxtState_t</t>
+  </si>
+  <si>
+    <t>nxtState_t = IDLE</t>
+  </si>
+  <si>
+    <t>The module shall preset o_latch_count and o_count_init to logic high upon system startup.</t>
+  </si>
+  <si>
+    <t>2. Observe o_latch_count and o_count_init</t>
+  </si>
+  <si>
+    <t>2. Observe curState_t and nxtState_t.</t>
+  </si>
+  <si>
+    <t>The module shall preset curState_t and nxt_state_t to IDLE upon system startup.</t>
+  </si>
+  <si>
+    <t>TDC_INIT_04</t>
+  </si>
+  <si>
+    <t>TDC_INIT_04_1</t>
+  </si>
+  <si>
+    <t>The module shall set curState_t and nxt_state_t to IDLE when i_reset_n is set to active low.</t>
+  </si>
+  <si>
+    <t>1. Set i_reset_n to active low.</t>
+  </si>
+  <si>
+    <t>1. Observe curState_t and nxtState_t.</t>
+  </si>
+  <si>
+    <t>TDC_INIT_05</t>
+  </si>
+  <si>
+    <t>TDC_INIT_05_1</t>
+  </si>
+  <si>
+    <t>countDB</t>
+  </si>
+  <si>
+    <t>triggerDB</t>
+  </si>
+  <si>
+    <t>prvTrigger</t>
+  </si>
+  <si>
+    <t>triggerDB = '0'</t>
+  </si>
+  <si>
+    <t>prvTrigger = '0'</t>
+  </si>
+  <si>
+    <t>TDC_FSM_01</t>
+  </si>
+  <si>
+    <t>TDC_FSM_01_1</t>
+  </si>
+  <si>
+    <t>The module shall not set nxtState_t to COUNTING when triggerDB is set to logic low and curState_t is IDLE</t>
+  </si>
+  <si>
+    <t>2. Observe countDB, tiggerDB, and prvTrigger.</t>
+  </si>
+  <si>
+    <t>1. Transition curState_t to IDLE.</t>
+  </si>
+  <si>
+    <t>2. Set triggerDB to logic low.</t>
+  </si>
+  <si>
+    <t>3. Observe nxtState_t.</t>
+  </si>
+  <si>
+    <t>nxtState_t = no change</t>
+  </si>
+  <si>
+    <t>TDC_FSM_01_2</t>
+  </si>
+  <si>
+    <t>The module shall not set nxtState_t to COUNTING when triggerDB is set to logic low and curState_t is PAUSE.</t>
+  </si>
+  <si>
+    <t>1. Transition curState_t to PAUSE.</t>
+  </si>
+  <si>
+    <t>TDC_FSM_01_3</t>
+  </si>
+  <si>
+    <t>The module shall set nxtState_t to COUNTING when triggerDB is set to logic high and curState_t is IDLE.</t>
+  </si>
+  <si>
+    <t>2. Set triggerDB to logic high.</t>
+  </si>
+  <si>
+    <t>nxtState_t = COUNTING</t>
+  </si>
+  <si>
+    <t>TDC_FSM_01_4</t>
+  </si>
+  <si>
+    <t>The module shall set nxtState_t to COUNTING when triggerDB is set to logic high and curState_t is PAUSE.</t>
+  </si>
+  <si>
+    <t>TDC_FSM_02_1</t>
+  </si>
+  <si>
+    <t>TDC_FSM_02</t>
+  </si>
+  <si>
+    <t>The module shall not set nxtState_t to PAUSE when triggerDB is set to logic low and curState_t is COUNTING.</t>
+  </si>
+  <si>
+    <t>1. Transition curState_t to COUNTING.</t>
+  </si>
+  <si>
+    <t>TDC_FSM_02_2</t>
+  </si>
+  <si>
+    <t>The module shall set nxtState_t to PAUSE when triggerDb is set to logic high.</t>
+  </si>
+  <si>
+    <t>nxtState_t = PAUSE</t>
+  </si>
+  <si>
+    <t>TDC_FSM_03</t>
+  </si>
+  <si>
+    <t>TDC_FSM_03_1</t>
+  </si>
+  <si>
+    <t>The module shall set o_count_enb and o_latch count to logic low and shall set o_count_init to logic high when curState_t is IDLE.</t>
+  </si>
+  <si>
+    <t>2. Observe o_count_enb, o_latch_count, and o_count_init.</t>
+  </si>
+  <si>
+    <t>o_latch_count = '0'</t>
+  </si>
+  <si>
+    <t>TDC_FSM_04</t>
+  </si>
+  <si>
+    <t>TDC_FSM_04_1</t>
+  </si>
+  <si>
+    <t>The module shall set o_count_init and o_latch_count to logic low and shall set o_count_enb to logic high when curState_t is COUNTING.</t>
+  </si>
+  <si>
+    <t>o_count_enb = '1'</t>
+  </si>
+  <si>
+    <t>o_count_init = '0'</t>
+  </si>
+  <si>
+    <t>TDC_FSM_05</t>
+  </si>
+  <si>
+    <t>TDC_FSM_05_1</t>
+  </si>
+  <si>
+    <t>The module shall set o_count_init to logic low and shall set o_count_enable and o_latch_count to logic high when curState_t is PAUSE.</t>
+  </si>
+  <si>
+    <t>TDC_DB_01</t>
+  </si>
+  <si>
+    <t>TDC_DB_01_1</t>
+  </si>
+  <si>
+    <t>The module shall begin with countDB equal to zero.</t>
+  </si>
+  <si>
+    <t>2. Observe countDB.</t>
+  </si>
+  <si>
+    <t>The module shall set countDB to zero and set triggerDB, and prvTrigger to logic low when i_reset_n is set to logic low.</t>
+  </si>
+  <si>
+    <t>TDC_DB_01_2</t>
+  </si>
+  <si>
+    <t>The module shall increment countDB by one at every rising edge of the clock.</t>
+  </si>
+  <si>
+    <t>3. Repeat 1 &amp; 2 ten times.</t>
+  </si>
+  <si>
+    <t>countDB = prev count + 1</t>
+  </si>
+  <si>
+    <t>TDC_DB_01_3</t>
+  </si>
+  <si>
+    <t>The module shall set countDB to zero when countDB equals 1,000,000</t>
+  </si>
+  <si>
+    <t>3.Observe countDB.</t>
+  </si>
+  <si>
+    <t>1. Set countDB equal to 1,000,000.</t>
+  </si>
+  <si>
+    <t>countDB = 0</t>
+  </si>
+  <si>
+    <t>TDC_DB_02</t>
+  </si>
+  <si>
+    <t>TDC_DB_02_1</t>
+  </si>
+  <si>
+    <t>The module shall not set prvTrigger to i_trigger when countDB does not equal zero.</t>
+  </si>
+  <si>
+    <t>1. Run for one clock cycle.</t>
+  </si>
+  <si>
+    <t>2. Run for one clock cycle.</t>
+  </si>
+  <si>
+    <t>1. Set countDB not equal to zero.</t>
+  </si>
+  <si>
+    <t>2. Observe prvTrigger.</t>
+  </si>
+  <si>
+    <t>prvTrigger = no change</t>
+  </si>
+  <si>
+    <t>The module shall set prvTrigger to i_trigger when countDB equals zero</t>
+  </si>
+  <si>
+    <t>1. Set countDB equal to zero.</t>
+  </si>
+  <si>
+    <t>prvTrigger = i_trigger</t>
+  </si>
+  <si>
+    <t>TDC_DB_02_2</t>
+  </si>
+  <si>
+    <t>TDC_DB_03</t>
+  </si>
+  <si>
+    <t>TDC_DB_03_1</t>
+  </si>
+  <si>
+    <t>4. Observe triggerDB.</t>
+  </si>
+  <si>
+    <t>triggerDB = no change</t>
+  </si>
+  <si>
+    <t>TDC_DB_03_2</t>
+  </si>
+  <si>
+    <t>The module shall not set triggerDB to i_trigger when countDB equals 1,000,000 and i_trigger is not equal to prvTrigger.</t>
+  </si>
+  <si>
+    <t>The module shall set triggerDB to i_trigger when countDb equals 1,000,000 and i_trigger is equal to prvTrigger.</t>
+  </si>
+  <si>
+    <t>3. Observe triggerDB.</t>
+  </si>
+  <si>
+    <t>2. Wait for countDB to equal 1,000,000.</t>
+  </si>
+  <si>
+    <t>1. Set i_trigger to '1'.</t>
+  </si>
+  <si>
+    <t>3. Set i_trigger to '0'.</t>
+  </si>
+  <si>
+    <t>2. Wait for countDB to equal 500,000.</t>
+  </si>
+  <si>
+    <t>triggerDB = '1'</t>
+  </si>
+  <si>
+    <t>TDC_DB_04</t>
+  </si>
+  <si>
+    <t>TDC_DB_04_1</t>
+  </si>
+  <si>
+    <t>The Module shall set countDB to zero when i_trigger is not equal to prvTrigger.</t>
+  </si>
+  <si>
+    <t>2. Wait 10 clock cycles.</t>
+  </si>
+  <si>
+    <t>4. Observe countDB.</t>
   </si>
 </sst>
 </file>
@@ -71,15 +419,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -96,17 +450,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,54 +875,1193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B749F761-9F56-490D-A99C-45D202B4F423}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G59" s="28"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+    </row>
   </sheetData>
+  <mergeCells count="102">
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -444,23 +2070,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5854B2-0AAC-427A-9430-B2DB5F6A605C}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,19 +2128,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,22 +2179,22 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,22 +2233,22 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/Life_Cycle_Data/Testcases/Verilog Stopwatch Testcases.xlsx
+++ b/Life_Cycle_Data/Testcases/Verilog Stopwatch Testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40010371\Documents\GitHub\Verilog_Stopwatch\Life_Cycle_Data\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D2661A-E4C8-4962-8718-2F2CBD45D32B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3554DCB0-8E4C-4056-B618-388BC3942930}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="119">
   <si>
     <t>Requirement Tag</t>
   </si>
@@ -256,9 +256,6 @@
     <t>TDC_DB_01_3</t>
   </si>
   <si>
-    <t>The module shall set countDB to zero when countDB equals 1,000,000</t>
-  </si>
-  <si>
     <t>countDB = 0</t>
   </si>
   <si>
@@ -383,6 +380,12 @@
   </si>
   <si>
     <t>2. Set i_trigger to logic low for 1 million clock cycles.</t>
+  </si>
+  <si>
+    <t>countDB = 1,000,000</t>
+  </si>
+  <si>
+    <t>The module shall set countDB shall not be set to zero when countDB reaches 1,000,000.</t>
   </si>
 </sst>
 </file>
@@ -585,95 +588,95 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -959,7 +962,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,141 +979,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>100</v>
+      <c r="C2" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="35"/>
+      <c r="H2" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="36"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="34"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="32"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="35"/>
+      <c r="H6" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1119,79 +1122,79 @@
         <v>21</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="36"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="34"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="24" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="32"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="39"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="35"/>
+      <c r="H10" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
@@ -1200,342 +1203,342 @@
         <v>32</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="37"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="36"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="F13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="37"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="37"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="C17" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="29" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="24" t="s">
+      <c r="B19" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="35"/>
+      <c r="H19" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="36"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="C21" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="23" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="31"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="31"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="37"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="36"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="C27" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="37"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="38"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="32"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="39"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="34" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -1548,96 +1551,96 @@
         <v>40</v>
       </c>
       <c r="G31" s="6"/>
-      <c r="H31" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="35"/>
+      <c r="H31" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="37"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="37"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="31"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="31"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="38"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="31"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="38"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -1650,98 +1653,98 @@
         <v>46</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I37" s="37"/>
+      <c r="H37" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="27"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="37"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="27"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="37"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="27"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="31"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="38"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="31"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="38"/>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="24" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="32"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="39"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -1754,98 +1757,98 @@
         <v>40</v>
       </c>
       <c r="G43" s="6"/>
-      <c r="H43" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="35"/>
+      <c r="H43" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="37"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="27"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="8"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="37"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="27"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I46" s="31"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I46" s="38"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="31"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="38"/>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="24" t="s">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="32"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="39"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="34" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -1858,15 +1861,15 @@
         <v>16</v>
       </c>
       <c r="G49" s="6"/>
-      <c r="H49" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" s="35"/>
+      <c r="H49" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" s="36"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="8"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="4" t="s">
         <v>59</v>
       </c>
@@ -1875,104 +1878,104 @@
         <v>60</v>
       </c>
       <c r="G50" s="4"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="37"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="27"/>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="25"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="9"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="5"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="36"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="28"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="23" t="s">
+      <c r="C52" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I52" s="34"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I52" s="37"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="29" t="s">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29" t="s">
+      <c r="E53" s="11"/>
+      <c r="F53" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="31"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="38"/>
     </row>
     <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24" t="s">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G54" s="24"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="32"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="39"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="38" t="s">
+      <c r="C55" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="38" t="s">
+      <c r="E55" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="38" t="s">
+      <c r="F55" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G55" s="38"/>
-      <c r="H55" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I55" s="39"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="8"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="4" t="s">
         <v>59</v>
       </c>
@@ -1981,86 +1984,47 @@
         <v>60</v>
       </c>
       <c r="G56" s="4"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="37"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="25"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="9"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G57" s="5"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="36"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="A31:A42"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A10:A12"/>
@@ -2074,29 +2038,68 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H10:H12"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A31:A42"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="I55:I57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
